--- a/InputFea_a.xlsx
+++ b/InputFea_a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/girishkrishnan/Box/Girish_Teaching/SE310_Fall2020/Lectures/TrussAnalysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kmai/Desktop/SE310-Computer-Project-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175C7141-EECF-784F-8A68-A72FF1610B18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779C4F65-51A0-9C4D-8732-C7B413CFB806}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="26300" windowHeight="19240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="26300" windowHeight="15800" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="elemNodes" sheetId="1" r:id="rId1"/>
@@ -24,40 +24,20 @@
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
         </ext>
       </extLst>
     </bk>
@@ -67,11 +47,6 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-  </valueMetadata>
 </metadata>
 </file>
 
@@ -210,7 +185,7 @@
             <v>0</v>
           </cell>
           <cell r="B2">
-            <v>80100497.539029062</v>
+            <v>20454.7156301258</v>
           </cell>
         </row>
         <row r="3">
@@ -218,7 +193,47 @@
             <v>1</v>
           </cell>
           <cell r="B3">
-            <v>1483814.678455513</v>
+            <v>3617.2156301257901</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>2</v>
+          </cell>
+          <cell r="B4">
+            <v>-33220.284369874207</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>3</v>
+          </cell>
+          <cell r="B5">
+            <v>-9877.879573443246</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>4</v>
+          </cell>
+          <cell r="B6">
+            <v>13884.55819426748</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>5</v>
+          </cell>
+          <cell r="B7">
+            <v>-30376.980696738119</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>6</v>
+          </cell>
+          <cell r="B8">
+            <v>5303.7030186319398</v>
           </cell>
         </row>
       </sheetData>
@@ -626,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -666,6 +681,38 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -673,10 +720,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -734,6 +781,17 @@
       </c>
       <c r="C5">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -746,7 +804,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -764,7 +822,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="B2" s="1">
         <v>200000000000</v>
@@ -772,7 +830,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="B3" s="1">
         <v>200000000000</v>
@@ -780,7 +838,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="B4" s="1">
         <v>200000000000</v>
@@ -788,23 +846,35 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="B5" s="1">
         <v>200000000000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>200000000000</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>200000000000</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>200000000000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -885,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -904,17 +974,25 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>100</v>
+        <v>53675</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C3" s="1"/>
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-80000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -925,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01BB3D3-B96F-5E41-A690-F09149B68484}">
   <dimension ref="A1:P167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -939,9 +1017,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" t="e" cm="1" vm="1">
-        <f t="array" aca="1" ref="A1" ca="1">[1]Stress!$A$1:$B$500</f>
-        <v>#VALUE!</v>
+      <c r="A1" cm="1">
+        <f t="array" ref="A1">[1]Stress!$A$1:$B$500</f>
+        <v>0</v>
       </c>
       <c r="B1" t="str">
         <f>[1]Stress!$B$1</f>
@@ -978,27 +1056,26 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2">
-        <v>80100497.539029062</v>
+        <v>20454.72</v>
       </c>
       <c r="C2">
-        <f>IF(ISNUMBER(elemNodes!A2),SQRT((VLOOKUP(elemNodes!A2,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B2,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A2,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B2,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
         <v>10</v>
       </c>
       <c r="D2" s="1">
         <f>IF(ISNUMBER(B2),B2*CrossSection!A2,"")</f>
-        <v>80100.497539029064</v>
+        <v>2045.4720000000002</v>
       </c>
       <c r="E2" s="1">
         <f>IF(ISNUMBER(B2),-(PI()^2*CrossSection!B2*CrossSection!A2^2)/(48*C2^2),"")</f>
-        <v>-411.23351671205654</v>
+        <v>-4112335.1671205666</v>
       </c>
       <c r="F2" s="1">
         <f>IF(ISNUMBER(B2),C2*SQRT(12/CrossSection!$A2),"")</f>
-        <v>1095.4451150103323</v>
+        <v>109.54451150103323</v>
       </c>
       <c r="G2" s="2" t="str">
         <f>IF(ISNUMBER(B2),IF(ABS(D2)&gt;ABS(E2),"X","J"),"")</f>
-        <v>X</v>
+        <v>J</v>
       </c>
       <c r="H2" s="2" t="str">
         <f>IF(ISNUMBER(B2),IF(ABS(B2)&gt;150000000,"X","J"),"")</f>
@@ -1006,40 +1083,39 @@
       </c>
       <c r="I2" s="2" t="str">
         <f>IF(ISNUMBER(B2),IF(F2&gt;500,"X","J"),"")</f>
-        <v>X</v>
+        <v>J</v>
       </c>
       <c r="J2" s="1">
         <f>IF(ISNUMBER(B2),C2*CrossSection!$A2,"")</f>
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <f>SUM(J1:J500)*(MAX(nodeCords!$A$2:$A$100)+1)</f>
-        <v>0.08</v>
+        <v>49.757663751819251</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3">
-        <v>1483814.678455513</v>
+        <v>3617.2159999999999</v>
       </c>
       <c r="C3">
-        <f>IF(ISNUMBER(elemNodes!A3),SQRT((VLOOKUP(elemNodes!A3,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B3,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A3,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B3,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
         <v>10</v>
       </c>
       <c r="D3" s="1">
         <f>IF(ISNUMBER(B3),B3*CrossSection!A3,"")</f>
-        <v>1483.8146784555131</v>
+        <v>361.72160000000002</v>
       </c>
       <c r="E3" s="1">
         <f>IF(ISNUMBER(B3),-(PI()^2*CrossSection!B3*CrossSection!A3^2)/(48*C3^2),"")</f>
-        <v>-411.23351671205654</v>
+        <v>-4112335.1671205666</v>
       </c>
       <c r="F3" s="1">
         <f>IF(ISNUMBER(B3),C3*SQRT(12/CrossSection!$A3),"")</f>
-        <v>1095.4451150103323</v>
+        <v>109.54451150103323</v>
       </c>
       <c r="G3" s="2" t="str">
         <f t="shared" ref="G3:G36" si="0">IF(ISNUMBER(B3),IF(ABS(D3)&gt;ABS(E3),"X","J"),"")</f>
-        <v>X</v>
+        <v>J</v>
       </c>
       <c r="H3" s="2" t="str">
         <f t="shared" ref="H3:H45" si="1">IF(ISNUMBER(B3),IF(ABS(B3)&gt;150000000,"X","J"),"")</f>
@@ -1047,110 +1123,195 @@
       </c>
       <c r="I3" s="2" t="str">
         <f t="shared" ref="I3:I15" si="2">IF(ISNUMBER(B3),IF(F3&gt;500,"X","J"),"")</f>
-        <v>X</v>
+        <v>J</v>
       </c>
       <c r="J3" s="1">
         <f>IF(ISNUMBER(B3),C3*CrossSection!$A3,"")</f>
-        <v>0.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="1"/>
+      <c r="B4">
+        <v>-33220.300000000003</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <f>IF(ISNUMBER(B4),B4*CrossSection!A4,"")</f>
+        <v>-3322.0300000000007</v>
+      </c>
+      <c r="E4" s="1">
+        <f>IF(ISNUMBER(B4),-(PI()^2*CrossSection!B4*CrossSection!A4^2)/(48*C4^2),"")</f>
+        <v>-4112335.1671205666</v>
+      </c>
+      <c r="F4" s="1">
+        <f>IF(ISNUMBER(B4),C4*SQRT(12/CrossSection!$A4),"")</f>
+        <v>109.54451150103323</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>J</v>
+      </c>
+      <c r="H4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>J</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>J</v>
+      </c>
+      <c r="J4" s="1">
+        <f>IF(ISNUMBER(B4),C4*CrossSection!$A4,"")</f>
+        <v>1</v>
+      </c>
       <c r="P4">
         <f>elemNodes!A2+1</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="1"/>
+      <c r="B5">
+        <v>-9877.8799999999992</v>
+      </c>
+      <c r="C5">
+        <v>14.142135623730949</v>
+      </c>
+      <c r="D5" s="1">
+        <f>IF(ISNUMBER(B5),B5*CrossSection!A5,"")</f>
+        <v>-987.78800000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <f>IF(ISNUMBER(B5),-(PI()^2*CrossSection!B5*CrossSection!A5^2)/(48*C5^2),"")</f>
+        <v>-2056167.5835602835</v>
+      </c>
+      <c r="F5" s="1">
+        <f>IF(ISNUMBER(B5),C5*SQRT(12/CrossSection!$A5),"")</f>
+        <v>154.91933384829667</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f t="shared" ref="G5:G8" si="3">IF(ISNUMBER(B5),IF(ABS(D5)&gt;ABS(E5),"X","J"),"")</f>
+        <v>J</v>
+      </c>
+      <c r="H5" s="2" t="str">
+        <f t="shared" ref="H5:H8" si="4">IF(ISNUMBER(B5),IF(ABS(B5)&gt;150000000,"X","J"),"")</f>
+        <v>J</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" ref="I5:I8" si="5">IF(ISNUMBER(B5),IF(F5&gt;500,"X","J"),"")</f>
+        <v>J</v>
+      </c>
+      <c r="J5" s="1">
+        <f>IF(ISNUMBER(B5),C5*CrossSection!$A5,"")</f>
+        <v>1.4142135623730949</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="1"/>
+      <c r="B6">
+        <v>13884.56</v>
+      </c>
+      <c r="C6">
+        <v>20.6155281280883</v>
+      </c>
+      <c r="D6" s="1">
+        <f>IF(ISNUMBER(B6),B6*CrossSection!A6,"")</f>
+        <v>1388.4560000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <f>IF(ISNUMBER(B6),-(PI()^2*CrossSection!B6*CrossSection!A6^2)/(48*C6^2),"")</f>
+        <v>-967608.27461660421</v>
+      </c>
+      <c r="F6" s="1">
+        <f>IF(ISNUMBER(B6),C6*SQRT(12/CrossSection!$A6),"")</f>
+        <v>225.83179581272427</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>J</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>J</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>J</v>
+      </c>
+      <c r="J6" s="1">
+        <f>IF(ISNUMBER(B6),C6*CrossSection!$A6,"")</f>
+        <v>2.0615528128088303</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C7" t="str">
-        <f>IF(ISNUMBER(elemNodes!A7),SQRT((VLOOKUP(elemNodes!A7,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B7,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A7,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B7,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
-        <v/>
-      </c>
-      <c r="D7" s="1" t="str">
+      <c r="B7">
+        <v>-30377</v>
+      </c>
+      <c r="C7">
+        <v>20.6155281280883</v>
+      </c>
+      <c r="D7" s="1">
         <f>IF(ISNUMBER(B7),B7*CrossSection!A7,"")</f>
-        <v/>
-      </c>
-      <c r="E7" s="1" t="str">
+        <v>-3037.7000000000003</v>
+      </c>
+      <c r="E7" s="1">
         <f>IF(ISNUMBER(B7),-(PI()^2*CrossSection!B7*CrossSection!A7^2)/(48*C7^2),"")</f>
-        <v/>
-      </c>
-      <c r="F7" s="1" t="str">
-        <f>IF(ISNUMBER(B7),C7*SQRT(12/CrossSection!$A$2),"")</f>
-        <v/>
+        <v>-967608.27461660421</v>
+      </c>
+      <c r="F7" s="1">
+        <f>IF(ISNUMBER(B7),C7*SQRT(12/CrossSection!$A7),"")</f>
+        <v>225.83179581272427</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>J</v>
       </c>
       <c r="H7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>J</v>
       </c>
       <c r="I7" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J7" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>J</v>
+      </c>
+      <c r="J7" s="1">
         <f>IF(ISNUMBER(B7),C7*CrossSection!$A7,"")</f>
-        <v/>
+        <v>2.0615528128088303</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C8" t="str">
-        <f>IF(ISNUMBER(elemNodes!A8),SQRT((VLOOKUP(elemNodes!A8,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B8,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A8,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B8,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
-        <v/>
-      </c>
-      <c r="D8" s="1" t="str">
+      <c r="B8">
+        <v>5303.7030000000004</v>
+      </c>
+      <c r="C8">
+        <v>14.142135623730949</v>
+      </c>
+      <c r="D8" s="1">
         <f>IF(ISNUMBER(B8),B8*CrossSection!A8,"")</f>
-        <v/>
-      </c>
-      <c r="E8" s="1" t="str">
+        <v>530.37030000000004</v>
+      </c>
+      <c r="E8" s="1">
         <f>IF(ISNUMBER(B8),-(PI()^2*CrossSection!B8*CrossSection!A8^2)/(48*C8^2),"")</f>
-        <v/>
-      </c>
-      <c r="F8" s="1" t="str">
-        <f>IF(ISNUMBER(B8),C8*SQRT(12/CrossSection!$A$2),"")</f>
-        <v/>
+        <v>-2056167.5835602835</v>
+      </c>
+      <c r="F8" s="1">
+        <f>IF(ISNUMBER(B8),C8*SQRT(12/CrossSection!$A8),"")</f>
+        <v>154.91933384829667</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>J</v>
       </c>
       <c r="H8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>J</v>
       </c>
       <c r="I8" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J8" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>J</v>
+      </c>
+      <c r="J8" s="1">
         <f>IF(ISNUMBER(B8),C8*CrossSection!$A8,"")</f>
-        <v/>
+        <v>1.4142135623730949</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1417,7 +1578,7 @@
         <v/>
       </c>
       <c r="I16" t="str">
-        <f t="shared" ref="I16:I28" si="3">IF(ISNUMBER(B16),IF(F16&gt;500,"X",""),"")</f>
+        <f t="shared" ref="I16:I28" si="6">IF(ISNUMBER(B16),IF(F16&gt;500,"X",""),"")</f>
         <v/>
       </c>
       <c r="J16" s="1" t="str">
@@ -1451,7 +1612,7 @@
         <v/>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J17" s="1" t="str">
@@ -1485,7 +1646,7 @@
         <v/>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J18" s="1" t="str">
@@ -1519,7 +1680,7 @@
         <v/>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J19" s="1" t="str">
@@ -1553,7 +1714,7 @@
         <v/>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J20" s="1" t="str">
@@ -1587,7 +1748,7 @@
         <v/>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J21" s="1" t="str">
@@ -1621,7 +1782,7 @@
         <v/>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J22" s="1" t="str">
@@ -1655,7 +1816,7 @@
         <v/>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J23" s="1" t="str">
@@ -1689,7 +1850,7 @@
         <v/>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J24" s="1" t="str">
@@ -1723,7 +1884,7 @@
         <v/>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J25" s="1" t="str">
@@ -1757,7 +1918,7 @@
         <v/>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J26" s="1" t="str">
@@ -1791,7 +1952,7 @@
         <v/>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J27" s="1" t="str">
@@ -1825,7 +1986,7 @@
         <v/>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J28" s="1" t="str">
@@ -2063,7 +2224,7 @@
         <v/>
       </c>
       <c r="G37" t="str">
-        <f t="shared" ref="G37:G66" si="4">IF(ISNUMBER(B37),IF(ABS(D37)&gt;ABS(E37),"X","J"),"")</f>
+        <f t="shared" ref="G37:G66" si="7">IF(ISNUMBER(B37),IF(ABS(D37)&gt;ABS(E37),"X","J"),"")</f>
         <v/>
       </c>
       <c r="H37" s="2" t="str">
@@ -2089,7 +2250,7 @@
         <v/>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H38" s="2" t="str">
@@ -2115,7 +2276,7 @@
         <v/>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H39" s="2" t="str">
@@ -2141,7 +2302,7 @@
         <v/>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H40" s="2" t="str">
@@ -2167,7 +2328,7 @@
         <v/>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H41" s="2" t="str">
@@ -2193,7 +2354,7 @@
         <v/>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H42" s="2" t="str">
@@ -2219,7 +2380,7 @@
         <v/>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H43" s="2" t="str">
@@ -2241,7 +2402,7 @@
         <v/>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H44" s="2" t="str">
@@ -2259,7 +2420,7 @@
         <v/>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H45" s="2" t="str">
@@ -2277,7 +2438,7 @@
         <v/>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2291,7 +2452,7 @@
         <v/>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2305,7 +2466,7 @@
         <v/>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2319,7 +2480,7 @@
         <v/>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2333,7 +2494,7 @@
         <v/>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2347,7 +2508,7 @@
         <v/>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2361,7 +2522,7 @@
         <v/>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2375,7 +2536,7 @@
         <v/>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2389,7 +2550,7 @@
         <v/>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2403,7 +2564,7 @@
         <v/>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2413,7 +2574,7 @@
         <v/>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2423,7 +2584,7 @@
         <v/>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2433,7 +2594,7 @@
         <v/>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2443,7 +2604,7 @@
         <v/>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2453,7 +2614,7 @@
         <v/>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2463,7 +2624,7 @@
         <v/>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2473,7 +2634,7 @@
         <v/>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2483,7 +2644,7 @@
         <v/>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2493,7 +2654,7 @@
         <v/>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2503,7 +2664,7 @@
         <v/>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2513,7 +2674,7 @@
         <v/>
       </c>
       <c r="G66" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2523,7 +2684,7 @@
         <v/>
       </c>
       <c r="G67" t="str">
-        <f t="shared" ref="G67:G77" si="5">IF(ISNUMBER(B67),IF(ABS(D67)&gt;ABS(E67),"X","J"),"")</f>
+        <f t="shared" ref="G67:G77" si="8">IF(ISNUMBER(B67),IF(ABS(D67)&gt;ABS(E67),"X","J"),"")</f>
         <v/>
       </c>
     </row>
@@ -2533,7 +2694,7 @@
         <v/>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2543,7 +2704,7 @@
         <v/>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2553,7 +2714,7 @@
         <v/>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2563,7 +2724,7 @@
         <v/>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2573,7 +2734,7 @@
         <v/>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2583,7 +2744,7 @@
         <v/>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2593,7 +2754,7 @@
         <v/>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2603,7 +2764,7 @@
         <v/>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2613,7 +2774,7 @@
         <v/>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2623,7 +2784,7 @@
         <v/>
       </c>
       <c r="G77" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -3169,5 +3330,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/InputFea_a.xlsx
+++ b/InputFea_a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kmai/Desktop/SE310-Computer-Project-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Mai\Desktop\SE310-Computer-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779C4F65-51A0-9C4D-8732-C7B413CFB806}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92138EB-77C7-4FFF-97A3-96F095B0038D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="26300" windowHeight="15800" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="elemNodes" sheetId="1" r:id="rId1"/>
@@ -24,20 +24,41 @@
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
   </externalReferences>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <metadataTypes count="1">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
         </ext>
       </extLst>
     </bk>
@@ -47,6 +68,11 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
@@ -185,7 +211,7 @@
             <v>0</v>
           </cell>
           <cell r="B2">
-            <v>20454.7156301258</v>
+            <v>-2382195.483848501</v>
           </cell>
         </row>
         <row r="3">
@@ -193,7 +219,7 @@
             <v>1</v>
           </cell>
           <cell r="B3">
-            <v>3617.2156301257901</v>
+            <v>-1811291.1786249119</v>
           </cell>
         </row>
         <row r="4">
@@ -201,7 +227,7 @@
             <v>2</v>
           </cell>
           <cell r="B4">
-            <v>-33220.284369874207</v>
+            <v>1911804.5161514969</v>
           </cell>
         </row>
         <row r="5">
@@ -209,7 +235,7 @@
             <v>3</v>
           </cell>
           <cell r="B5">
-            <v>-9877.879573443246</v>
+            <v>1386158.976348829</v>
           </cell>
         </row>
         <row r="6">
@@ -217,7 +243,7 @@
             <v>4</v>
           </cell>
           <cell r="B6">
-            <v>13884.55819426748</v>
+            <v>1331687.759394563</v>
           </cell>
         </row>
         <row r="7">
@@ -225,7 +251,7 @@
             <v>5</v>
           </cell>
           <cell r="B7">
-            <v>-30376.980696738119</v>
+            <v>-534365.6072257302</v>
           </cell>
         </row>
         <row r="8">
@@ -233,7 +259,23 @@
             <v>6</v>
           </cell>
           <cell r="B8">
-            <v>5303.7030186319398</v>
+            <v>-1568723.588036723</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>7</v>
+          </cell>
+          <cell r="B9">
+            <v>1453631.609512656</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>8</v>
+          </cell>
+          <cell r="B10">
+            <v>-298137.84948483168</v>
           </cell>
         </row>
       </sheetData>
@@ -262,7 +304,7 @@
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
     <keyFlags>
       <key name="_Self">
@@ -291,6 +333,9 @@
         <flag name="ExcludeFromCalcComparison" value="1"/>
       </key>
       <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
         <flag name="ExcludeFromCalcComparison" value="1"/>
       </key>
     </keyFlags>
@@ -641,15 +686,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -657,7 +702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -665,7 +710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -673,44 +718,60 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>4</v>
-      </c>
       <c r="B7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -720,15 +781,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -739,7 +800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -750,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -758,21 +819,21 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -780,18 +841,29 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>30</v>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -801,18 +873,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -820,7 +892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.1</v>
       </c>
@@ -828,7 +900,7 @@
         <v>200000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.1</v>
       </c>
@@ -836,7 +908,7 @@
         <v>200000000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.1</v>
       </c>
@@ -844,23 +916,23 @@
         <v>200000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="B5" s="1">
         <v>200000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="B6" s="1">
         <v>200000000000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.1</v>
       </c>
@@ -868,13 +940,33 @@
         <v>200000000000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="B8" s="1">
         <v>200000000000</v>
       </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>200000000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="B10" s="1">
+        <v>200000000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -886,12 +978,12 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -902,7 +994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -913,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -924,9 +1016,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -935,9 +1027,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -956,12 +1048,12 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -972,20 +1064,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>53675</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-53675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1003,23 +1095,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01BB3D3-B96F-5E41-A690-F09149B68484}">
   <dimension ref="A1:P167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" cm="1">
-        <f t="array" ref="A1">[1]Stress!$A$1:$B$500</f>
-        <v>0</v>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="A1" ca="1">[1]Stress!$A$1:$B$500</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B1" t="str">
         <f>[1]Stress!$B$1</f>
@@ -1054,24 +1146,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>20454.72</v>
+        <v>-2382195.483848501</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
         <f>IF(ISNUMBER(B2),B2*CrossSection!A2,"")</f>
-        <v>2045.4720000000002</v>
+        <v>-238219.54838485012</v>
       </c>
       <c r="E2" s="1">
         <f>IF(ISNUMBER(B2),-(PI()^2*CrossSection!B2*CrossSection!A2^2)/(48*C2^2),"")</f>
-        <v>-4112335.1671205666</v>
+        <v>-1028083.7917801416</v>
       </c>
       <c r="F2" s="1">
         <f>IF(ISNUMBER(B2),C2*SQRT(12/CrossSection!$A2),"")</f>
-        <v>109.54451150103323</v>
+        <v>219.08902300206645</v>
       </c>
       <c r="G2" s="2" t="str">
         <f>IF(ISNUMBER(B2),IF(ABS(D2)&gt;ABS(E2),"X","J"),"")</f>
@@ -1082,112 +1174,112 @@
         <v>J</v>
       </c>
       <c r="I2" s="2" t="str">
-        <f>IF(ISNUMBER(B2),IF(F2&gt;500,"X","J"),"")</f>
+        <f t="shared" ref="I2:I15" si="0">IF(ISNUMBER(B2),IF(F2&gt;500,"X","J"),"")</f>
         <v>J</v>
       </c>
       <c r="J2" s="1">
         <f>IF(ISNUMBER(B2),C2*CrossSection!$A2,"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2">
         <f>SUM(J1:J500)*(MAX(nodeCords!$A$2:$A$100)+1)</f>
-        <v>49.757663751819251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>111.92544422653788</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>3617.2159999999999</v>
+        <v>-1811291.1786249119</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>30.413812651491099</v>
       </c>
       <c r="D3" s="1">
         <f>IF(ISNUMBER(B3),B3*CrossSection!A3,"")</f>
-        <v>361.72160000000002</v>
+        <v>-181129.1178624912</v>
       </c>
       <c r="E3" s="1">
         <f>IF(ISNUMBER(B3),-(PI()^2*CrossSection!B3*CrossSection!A3^2)/(48*C3^2),"")</f>
-        <v>-4112335.1671205666</v>
+        <v>-444576.77482384501</v>
       </c>
       <c r="F3" s="1">
         <f>IF(ISNUMBER(B3),C3*SQRT(12/CrossSection!$A3),"")</f>
-        <v>109.54451150103323</v>
+        <v>333.16662497915365</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G36" si="0">IF(ISNUMBER(B3),IF(ABS(D3)&gt;ABS(E3),"X","J"),"")</f>
+        <f t="shared" ref="G3:G36" si="1">IF(ISNUMBER(B3),IF(ABS(D3)&gt;ABS(E3),"X","J"),"")</f>
         <v>J</v>
       </c>
       <c r="H3" s="2" t="str">
-        <f t="shared" ref="H3:H45" si="1">IF(ISNUMBER(B3),IF(ABS(B3)&gt;150000000,"X","J"),"")</f>
+        <f t="shared" ref="H3:H45" si="2">IF(ISNUMBER(B3),IF(ABS(B3)&gt;150000000,"X","J"),"")</f>
         <v>J</v>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I15" si="2">IF(ISNUMBER(B3),IF(F3&gt;500,"X","J"),"")</f>
+        <f t="shared" si="0"/>
         <v>J</v>
       </c>
       <c r="J3" s="1">
         <f>IF(ISNUMBER(B3),C3*CrossSection!$A3,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>3.0413812651491101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>-33220.300000000003</v>
+        <v>1911804.5161514969</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
         <f>IF(ISNUMBER(B4),B4*CrossSection!A4,"")</f>
-        <v>-3322.0300000000007</v>
+        <v>191180.45161514971</v>
       </c>
       <c r="E4" s="1">
         <f>IF(ISNUMBER(B4),-(PI()^2*CrossSection!B4*CrossSection!A4^2)/(48*C4^2),"")</f>
-        <v>-4112335.1671205666</v>
+        <v>-1028083.7917801416</v>
       </c>
       <c r="F4" s="1">
         <f>IF(ISNUMBER(B4),C4*SQRT(12/CrossSection!$A4),"")</f>
-        <v>109.54451150103323</v>
+        <v>219.08902300206645</v>
       </c>
       <c r="G4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>J</v>
+      </c>
+      <c r="H4" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>J</v>
+      </c>
+      <c r="I4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>J</v>
       </c>
-      <c r="H4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>J</v>
-      </c>
-      <c r="I4" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>J</v>
-      </c>
       <c r="J4" s="1">
         <f>IF(ISNUMBER(B4),C4*CrossSection!$A4,"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4">
         <f>elemNodes!A2+1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>-9877.8799999999992</v>
+        <v>1386158.976348829</v>
       </c>
       <c r="C5">
-        <v>14.142135623730949</v>
+        <v>11.180339887498951</v>
       </c>
       <c r="D5" s="1">
         <f>IF(ISNUMBER(B5),B5*CrossSection!A5,"")</f>
-        <v>-987.78800000000001</v>
+        <v>41584.769290464865</v>
       </c>
       <c r="E5" s="1">
         <f>IF(ISNUMBER(B5),-(PI()^2*CrossSection!B5*CrossSection!A5^2)/(48*C5^2),"")</f>
-        <v>-2056167.5835602835</v>
+        <v>-296088.13203268056</v>
       </c>
       <c r="F5" s="1">
         <f>IF(ISNUMBER(B5),C5*SQRT(12/CrossSection!$A5),"")</f>
-        <v>154.91933384829667</v>
+        <v>223.60679774997902</v>
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" ref="G5:G8" si="3">IF(ISNUMBER(B5),IF(ABS(D5)&gt;ABS(E5),"X","J"),"")</f>
@@ -1198,32 +1290,32 @@
         <v>J</v>
       </c>
       <c r="I5" s="2" t="str">
-        <f t="shared" ref="I5:I8" si="5">IF(ISNUMBER(B5),IF(F5&gt;500,"X","J"),"")</f>
+        <f t="shared" si="0"/>
         <v>J</v>
       </c>
       <c r="J5" s="1">
         <f>IF(ISNUMBER(B5),C5*CrossSection!$A5,"")</f>
-        <v>1.4142135623730949</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0.33541019662496852</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>13884.56</v>
+        <v>1331687.759394563</v>
       </c>
       <c r="C6">
-        <v>20.6155281280883</v>
+        <v>11.180339887498951</v>
       </c>
       <c r="D6" s="1">
         <f>IF(ISNUMBER(B6),B6*CrossSection!A6,"")</f>
-        <v>1388.4560000000001</v>
+        <v>66584.387969728152</v>
       </c>
       <c r="E6" s="1">
         <f>IF(ISNUMBER(B6),-(PI()^2*CrossSection!B6*CrossSection!A6^2)/(48*C6^2),"")</f>
-        <v>-967608.27461660421</v>
+        <v>-822467.03342411295</v>
       </c>
       <c r="F6" s="1">
         <f>IF(ISNUMBER(B6),C6*SQRT(12/CrossSection!$A6),"")</f>
-        <v>225.83179581272427</v>
+        <v>173.20508075688778</v>
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" si="3"/>
@@ -1234,32 +1326,32 @@
         <v>J</v>
       </c>
       <c r="I6" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>J</v>
       </c>
       <c r="J6" s="1">
         <f>IF(ISNUMBER(B6),C6*CrossSection!$A6,"")</f>
-        <v>2.0615528128088303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0.55901699437494756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>-30377</v>
+        <v>-534365.6072257302</v>
       </c>
       <c r="C7">
-        <v>20.6155281280883</v>
+        <v>11.180339887498951</v>
       </c>
       <c r="D7" s="1">
         <f>IF(ISNUMBER(B7),B7*CrossSection!A7,"")</f>
-        <v>-3037.7000000000003</v>
+        <v>-53436.56072257302</v>
       </c>
       <c r="E7" s="1">
         <f>IF(ISNUMBER(B7),-(PI()^2*CrossSection!B7*CrossSection!A7^2)/(48*C7^2),"")</f>
-        <v>-967608.27461660421</v>
+        <v>-3289868.1336964518</v>
       </c>
       <c r="F7" s="1">
         <f>IF(ISNUMBER(B7),C7*SQRT(12/CrossSection!$A7),"")</f>
-        <v>225.83179581272427</v>
+        <v>122.47448713915894</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="3"/>
@@ -1270,32 +1362,32 @@
         <v>J</v>
       </c>
       <c r="I7" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>J</v>
       </c>
       <c r="J7" s="1">
         <f>IF(ISNUMBER(B7),C7*CrossSection!$A7,"")</f>
-        <v>2.0615528128088303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1.1180339887498951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>5303.7030000000004</v>
+        <v>-1568723.588036723</v>
       </c>
       <c r="C8">
-        <v>14.142135623730949</v>
+        <v>11.180339887498951</v>
       </c>
       <c r="D8" s="1">
         <f>IF(ISNUMBER(B8),B8*CrossSection!A8,"")</f>
-        <v>530.37030000000004</v>
+        <v>-78436.179401836154</v>
       </c>
       <c r="E8" s="1">
         <f>IF(ISNUMBER(B8),-(PI()^2*CrossSection!B8*CrossSection!A8^2)/(48*C8^2),"")</f>
-        <v>-2056167.5835602835</v>
+        <v>-822467.03342411295</v>
       </c>
       <c r="F8" s="1">
         <f>IF(ISNUMBER(B8),C8*SQRT(12/CrossSection!$A8),"")</f>
-        <v>154.91933384829667</v>
+        <v>173.20508075688778</v>
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" si="3"/>
@@ -1306,85 +1398,89 @@
         <v>J</v>
       </c>
       <c r="I8" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>J</v>
       </c>
       <c r="J8" s="1">
         <f>IF(ISNUMBER(B8),C8*CrossSection!$A8,"")</f>
-        <v>1.4142135623730949</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C9" t="str">
-        <f>IF(ISNUMBER(elemNodes!A9),SQRT((VLOOKUP(elemNodes!A9,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B9,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A9,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B9,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
-        <v/>
-      </c>
-      <c r="D9" s="1" t="str">
+        <v>0.55901699437494756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1453631.609512656</v>
+      </c>
+      <c r="C9">
+        <v>30.413812651491099</v>
+      </c>
+      <c r="D9" s="1">
         <f>IF(ISNUMBER(B9),B9*CrossSection!A9,"")</f>
-        <v/>
-      </c>
-      <c r="E9" s="1" t="str">
+        <v>145363.1609512656</v>
+      </c>
+      <c r="E9" s="1">
         <f>IF(ISNUMBER(B9),-(PI()^2*CrossSection!B9*CrossSection!A9^2)/(48*C9^2),"")</f>
-        <v/>
-      </c>
-      <c r="F9" s="1" t="str">
+        <v>-444576.77482384501</v>
+      </c>
+      <c r="F9" s="1">
         <f>IF(ISNUMBER(B9),C9*SQRT(12/CrossSection!$A$2),"")</f>
-        <v/>
+        <v>333.16662497915365</v>
       </c>
       <c r="G9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>J</v>
+      </c>
+      <c r="H9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>J</v>
+      </c>
+      <c r="I9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H9" s="2" t="str">
+        <v>J</v>
+      </c>
+      <c r="J9" s="1">
+        <f>IF(ISNUMBER(B9),C9*CrossSection!$A9,"")</f>
+        <v>3.0413812651491101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>-298137.84948483168</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1">
+        <f>IF(ISNUMBER(B10),B10*CrossSection!A10,"")</f>
+        <v>-44720.677422724752</v>
+      </c>
+      <c r="E10" s="1">
+        <f>IF(ISNUMBER(B10),-(PI()^2*CrossSection!B10*CrossSection!A10^2)/(48*C10^2),"")</f>
+        <v>-578297.13287632947</v>
+      </c>
+      <c r="F10" s="1">
+        <f>IF(ISNUMBER(B10),C10*SQRT(12/CrossSection!$A$2),"")</f>
+        <v>438.17804600413291</v>
+      </c>
+      <c r="G10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I9" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J9" s="1" t="str">
-        <f>IF(ISNUMBER(B9),C9*CrossSection!$A9,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C10" t="str">
-        <f>IF(ISNUMBER(elemNodes!A10),SQRT((VLOOKUP(elemNodes!A10,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B10,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A10,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B10,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
-        <v/>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f>IF(ISNUMBER(B10),B10*CrossSection!A10,"")</f>
-        <v/>
-      </c>
-      <c r="E10" s="1" t="str">
-        <f>IF(ISNUMBER(B10),-(PI()^2*CrossSection!B10*CrossSection!A10^2)/(48*C10^2),"")</f>
-        <v/>
-      </c>
-      <c r="F10" s="1" t="str">
-        <f>IF(ISNUMBER(B10),C10*SQRT(12/CrossSection!$A$2),"")</f>
-        <v/>
-      </c>
-      <c r="G10" s="2" t="str">
+        <v>J</v>
+      </c>
+      <c r="H10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>J</v>
+      </c>
+      <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I10" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J10" s="1" t="str">
+        <v>J</v>
+      </c>
+      <c r="J10" s="1">
         <f>IF(ISNUMBER(B10),C10*CrossSection!$A10,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" t="str">
-        <f>IF(ISNUMBER(elemNodes!A11),SQRT((VLOOKUP(elemNodes!A11,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B11,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A11,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B11,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
+        <f>IF(ISNUMBER(elemNodes!#REF!),SQRT((VLOOKUP(elemNodes!#REF!,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!#REF!,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!#REF!,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!#REF!,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
         <v/>
       </c>
       <c r="D11" s="1" t="str">
@@ -1400,15 +1496,15 @@
         <v/>
       </c>
       <c r="G11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I11" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J11" s="1" t="str">
@@ -1416,17 +1512,17 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" t="str">
-        <f>IF(ISNUMBER(elemNodes!A12),SQRT((VLOOKUP(elemNodes!A12,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B12,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A12,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B12,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
+        <f>IF(ISNUMBER(elemNodes!#REF!),SQRT((VLOOKUP(elemNodes!#REF!,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!#REF!,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!#REF!,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!#REF!,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
         <v/>
       </c>
       <c r="D12" s="1" t="str">
-        <f>IF(ISNUMBER(B12),B12*CrossSection!A12,"")</f>
+        <f>IF(ISNUMBER(B12),B12*CrossSection!#REF!,"")</f>
         <v/>
       </c>
       <c r="E12" s="1" t="str">
-        <f>IF(ISNUMBER(B12),-(PI()^2*CrossSection!B12*CrossSection!A12^2)/(48*C12^2),"")</f>
+        <f>IF(ISNUMBER(B12),-(PI()^2*CrossSection!#REF!*CrossSection!#REF!^2)/(48*C12^2),"")</f>
         <v/>
       </c>
       <c r="F12" s="1" t="str">
@@ -1434,33 +1530,33 @@
         <v/>
       </c>
       <c r="G12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I12" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I12" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
       <c r="J12" s="1" t="str">
-        <f>IF(ISNUMBER(B12),C12*CrossSection!$A12,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C13" t="str">
-        <f>IF(ISNUMBER(elemNodes!A13),SQRT((VLOOKUP(elemNodes!A13,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B13,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A13,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B13,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
-        <v/>
+        <f>IF(ISNUMBER(B12),C12*CrossSection!#REF!,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>IF(ISNUMBER(elemNodes!A9),SQRT((VLOOKUP(elemNodes!A9,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B9,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A9,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B9,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
+        <v>30.413812651491099</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>IF(ISNUMBER(B13),B13*CrossSection!A13,"")</f>
+        <f>IF(ISNUMBER(B13),B13*CrossSection!#REF!,"")</f>
         <v/>
       </c>
       <c r="E13" s="1" t="str">
-        <f>IF(ISNUMBER(B13),-(PI()^2*CrossSection!B13*CrossSection!A13^2)/(48*C13^2),"")</f>
+        <f>IF(ISNUMBER(B13),-(PI()^2*CrossSection!#REF!*CrossSection!#REF!^2)/(48*C13^2),"")</f>
         <v/>
       </c>
       <c r="F13" s="1" t="str">
@@ -1468,25 +1564,25 @@
         <v/>
       </c>
       <c r="G13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I13" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I13" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
       <c r="J13" s="1" t="str">
-        <f>IF(ISNUMBER(B13),C13*CrossSection!$A13,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+        <f>IF(ISNUMBER(B13),C13*CrossSection!#REF!,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" t="str">
-        <f>IF(ISNUMBER(elemNodes!A14),SQRT((VLOOKUP(elemNodes!A14,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B14,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A14,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B14,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
+        <f>IF(ISNUMBER(elemNodes!A12),SQRT((VLOOKUP(elemNodes!A12,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B12,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A12,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B12,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
         <v/>
       </c>
       <c r="D14" s="1" t="str">
@@ -1502,15 +1598,15 @@
         <v/>
       </c>
       <c r="G14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I14" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J14" s="1" t="str">
@@ -1518,9 +1614,9 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" t="str">
-        <f>IF(ISNUMBER(elemNodes!A15),SQRT((VLOOKUP(elemNodes!A15,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B15,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A15,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B15,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
+        <f>IF(ISNUMBER(elemNodes!A13),SQRT((VLOOKUP(elemNodes!A13,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B13,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A13,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B13,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
         <v/>
       </c>
       <c r="D15" s="1" t="str">
@@ -1536,15 +1632,15 @@
         <v/>
       </c>
       <c r="G15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H15" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I15" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J15" s="1" t="str">
@@ -1552,9 +1648,9 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" t="str">
-        <f>IF(ISNUMBER(elemNodes!A16),SQRT((VLOOKUP(elemNodes!A16,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B16,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A16,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B16,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
+        <f>IF(ISNUMBER(elemNodes!A14),SQRT((VLOOKUP(elemNodes!A14,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B14,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A14,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B14,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
         <v/>
       </c>
       <c r="D16" s="1" t="str">
@@ -1570,15 +1666,15 @@
         <v/>
       </c>
       <c r="G16" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H16" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I16" t="str">
-        <f t="shared" ref="I16:I28" si="6">IF(ISNUMBER(B16),IF(F16&gt;500,"X",""),"")</f>
+        <f t="shared" ref="I16:I28" si="5">IF(ISNUMBER(B16),IF(F16&gt;500,"X",""),"")</f>
         <v/>
       </c>
       <c r="J16" s="1" t="str">
@@ -1586,9 +1682,9 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" t="str">
-        <f>IF(ISNUMBER(elemNodes!A17),SQRT((VLOOKUP(elemNodes!A17,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B17,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A17,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B17,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
+        <f>IF(ISNUMBER(elemNodes!A15),SQRT((VLOOKUP(elemNodes!A15,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B15,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A15,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B15,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
         <v/>
       </c>
       <c r="D17" s="1" t="str">
@@ -1604,15 +1700,15 @@
         <v/>
       </c>
       <c r="G17" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H17" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J17" s="1" t="str">
@@ -1620,9 +1716,9 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C18" t="str">
-        <f>IF(ISNUMBER(elemNodes!A18),SQRT((VLOOKUP(elemNodes!A18,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B18,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A18,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B18,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
+        <f>IF(ISNUMBER(elemNodes!A16),SQRT((VLOOKUP(elemNodes!A16,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B16,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A16,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B16,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
         <v/>
       </c>
       <c r="D18" s="1" t="str">
@@ -1638,15 +1734,15 @@
         <v/>
       </c>
       <c r="G18" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H18" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J18" s="1" t="str">
@@ -1654,9 +1750,9 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19" t="str">
-        <f>IF(ISNUMBER(elemNodes!A19),SQRT((VLOOKUP(elemNodes!A19,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B19,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A19,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B19,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
+        <f>IF(ISNUMBER(elemNodes!A17),SQRT((VLOOKUP(elemNodes!A17,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B17,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A17,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B17,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
         <v/>
       </c>
       <c r="D19" s="1" t="str">
@@ -1672,15 +1768,15 @@
         <v/>
       </c>
       <c r="G19" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H19" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J19" s="1" t="str">
@@ -1688,9 +1784,9 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20" t="str">
-        <f>IF(ISNUMBER(elemNodes!A20),SQRT((VLOOKUP(elemNodes!A20,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B20,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A20,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B20,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
+        <f>IF(ISNUMBER(elemNodes!A18),SQRT((VLOOKUP(elemNodes!A18,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B18,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A18,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B18,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
         <v/>
       </c>
       <c r="D20" s="1" t="str">
@@ -1706,15 +1802,15 @@
         <v/>
       </c>
       <c r="G20" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H20" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J20" s="1" t="str">
@@ -1722,9 +1818,9 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C21" t="str">
-        <f>IF(ISNUMBER(elemNodes!A21),SQRT((VLOOKUP(elemNodes!A21,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B21,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A21,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B21,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
+        <f>IF(ISNUMBER(elemNodes!A19),SQRT((VLOOKUP(elemNodes!A19,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B19,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A19,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B19,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
         <v/>
       </c>
       <c r="D21" s="1" t="str">
@@ -1740,15 +1836,15 @@
         <v/>
       </c>
       <c r="G21" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H21" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J21" s="1" t="str">
@@ -1756,9 +1852,9 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C22" t="str">
-        <f>IF(ISNUMBER(elemNodes!A22),SQRT((VLOOKUP(elemNodes!A22,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B22,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A22,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B22,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
+        <f>IF(ISNUMBER(elemNodes!A20),SQRT((VLOOKUP(elemNodes!A20,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B20,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A20,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B20,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
         <v/>
       </c>
       <c r="D22" s="1" t="str">
@@ -1774,15 +1870,15 @@
         <v/>
       </c>
       <c r="G22" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H22" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J22" s="1" t="str">
@@ -1790,9 +1886,9 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C23" t="str">
-        <f>IF(ISNUMBER(elemNodes!A23),SQRT((VLOOKUP(elemNodes!A23,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B23,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A23,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B23,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
+        <f>IF(ISNUMBER(elemNodes!A21),SQRT((VLOOKUP(elemNodes!A21,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B21,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A21,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B21,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
         <v/>
       </c>
       <c r="D23" s="1" t="str">
@@ -1808,15 +1904,15 @@
         <v/>
       </c>
       <c r="G23" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H23" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J23" s="1" t="str">
@@ -1824,9 +1920,9 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C24" t="str">
-        <f>IF(ISNUMBER(elemNodes!A24),SQRT((VLOOKUP(elemNodes!A24,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B24,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A24,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B24,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
+        <f>IF(ISNUMBER(elemNodes!A22),SQRT((VLOOKUP(elemNodes!A22,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B22,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A22,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B22,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
         <v/>
       </c>
       <c r="D24" s="1" t="str">
@@ -1842,15 +1938,15 @@
         <v/>
       </c>
       <c r="G24" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H24" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J24" s="1" t="str">
@@ -1858,9 +1954,9 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C25" t="str">
-        <f>IF(ISNUMBER(elemNodes!A25),SQRT((VLOOKUP(elemNodes!A25,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B25,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A25,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B25,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
+        <f>IF(ISNUMBER(elemNodes!A23),SQRT((VLOOKUP(elemNodes!A23,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B23,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A23,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B23,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
         <v/>
       </c>
       <c r="D25" s="1" t="str">
@@ -1876,15 +1972,15 @@
         <v/>
       </c>
       <c r="G25" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H25" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J25" s="1" t="str">
@@ -1892,9 +1988,9 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C26" t="str">
-        <f>IF(ISNUMBER(elemNodes!A26),SQRT((VLOOKUP(elemNodes!A26,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B26,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A26,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B26,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
+        <f>IF(ISNUMBER(elemNodes!A24),SQRT((VLOOKUP(elemNodes!A24,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B24,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A24,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B24,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
         <v/>
       </c>
       <c r="D26" s="1" t="str">
@@ -1910,15 +2006,15 @@
         <v/>
       </c>
       <c r="G26" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H26" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J26" s="1" t="str">
@@ -1926,9 +2022,9 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C27" t="str">
-        <f>IF(ISNUMBER(elemNodes!A27),SQRT((VLOOKUP(elemNodes!A27,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B27,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A27,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B27,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
+        <f>IF(ISNUMBER(elemNodes!A25),SQRT((VLOOKUP(elemNodes!A25,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B25,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A25,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B25,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
         <v/>
       </c>
       <c r="D27" s="1" t="str">
@@ -1944,15 +2040,15 @@
         <v/>
       </c>
       <c r="G27" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H27" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J27" s="1" t="str">
@@ -1960,9 +2056,9 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C28" t="str">
-        <f>IF(ISNUMBER(elemNodes!A28),SQRT((VLOOKUP(elemNodes!A28,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B28,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A28,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B28,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
+        <f>IF(ISNUMBER(elemNodes!A26),SQRT((VLOOKUP(elemNodes!A26,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B26,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A26,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B26,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
         <v/>
       </c>
       <c r="D28" s="1" t="str">
@@ -1978,15 +2074,15 @@
         <v/>
       </c>
       <c r="G28" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H28" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J28" s="1" t="str">
@@ -1994,9 +2090,9 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C29" t="str">
-        <f>IF(ISNUMBER(elemNodes!A29),SQRT((VLOOKUP(elemNodes!A29,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B29,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A29,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B29,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
+        <f>IF(ISNUMBER(elemNodes!A27),SQRT((VLOOKUP(elemNodes!A27,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B27,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A27,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B27,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
         <v/>
       </c>
       <c r="D29" s="1" t="str">
@@ -2012,11 +2108,11 @@
         <v/>
       </c>
       <c r="G29" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H29" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J29" s="1" t="str">
@@ -2024,9 +2120,9 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C30" t="str">
-        <f>IF(ISNUMBER(elemNodes!A30),SQRT((VLOOKUP(elemNodes!A30,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B30,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A30,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B30,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
+        <f>IF(ISNUMBER(elemNodes!A28),SQRT((VLOOKUP(elemNodes!A28,nodeCords!$A$2:$C$105,2,FALSE)-VLOOKUP(elemNodes!B28,nodeCords!$A$2:$C$105,2,FALSE))^2+(VLOOKUP(elemNodes!A28,nodeCords!$A$2:$C$105,3,FALSE)-VLOOKUP(elemNodes!B28,nodeCords!$A$2:$C$105,3,FALSE))^2),"")</f>
         <v/>
       </c>
       <c r="D30" s="1" t="str">
@@ -2042,11 +2138,11 @@
         <v/>
       </c>
       <c r="G30" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H30" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J30" s="1" t="str">
@@ -2054,7 +2150,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="str">
         <f>IF(ISNUMBER(B31),B31*CrossSection!A31,"")</f>
         <v/>
@@ -2068,11 +2164,11 @@
         <v/>
       </c>
       <c r="G31" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H31" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J31" s="1" t="str">
@@ -2080,7 +2176,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="str">
         <f>IF(ISNUMBER(B32),B32*CrossSection!A32,"")</f>
         <v/>
@@ -2094,11 +2190,11 @@
         <v/>
       </c>
       <c r="G32" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H32" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J32" s="1" t="str">
@@ -2106,7 +2202,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="str">
         <f>IF(ISNUMBER(B33),B33*CrossSection!A33,"")</f>
         <v/>
@@ -2120,11 +2216,11 @@
         <v/>
       </c>
       <c r="G33" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H33" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J33" s="1" t="str">
@@ -2132,7 +2228,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="str">
         <f>IF(ISNUMBER(B34),B34*CrossSection!A34,"")</f>
         <v/>
@@ -2146,11 +2242,11 @@
         <v/>
       </c>
       <c r="G34" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H34" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J34" s="1" t="str">
@@ -2158,7 +2254,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D35" s="1" t="str">
         <f>IF(ISNUMBER(B35),B35*CrossSection!A35,"")</f>
         <v/>
@@ -2172,11 +2268,11 @@
         <v/>
       </c>
       <c r="G35" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H35" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J35" s="1" t="str">
@@ -2184,7 +2280,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D36" s="1" t="str">
         <f>IF(ISNUMBER(B36),B36*CrossSection!A36,"")</f>
         <v/>
@@ -2198,11 +2294,11 @@
         <v/>
       </c>
       <c r="G36" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H36" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J36" s="1" t="str">
@@ -2210,7 +2306,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D37" s="1" t="str">
         <f>IF(ISNUMBER(B37),B37*CrossSection!A37,"")</f>
         <v/>
@@ -2224,11 +2320,11 @@
         <v/>
       </c>
       <c r="G37" t="str">
-        <f t="shared" ref="G37:G66" si="7">IF(ISNUMBER(B37),IF(ABS(D37)&gt;ABS(E37),"X","J"),"")</f>
+        <f t="shared" ref="G37:G66" si="6">IF(ISNUMBER(B37),IF(ABS(D37)&gt;ABS(E37),"X","J"),"")</f>
         <v/>
       </c>
       <c r="H37" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J37" s="1" t="str">
@@ -2236,7 +2332,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D38" s="1" t="str">
         <f>IF(ISNUMBER(B38),B38*CrossSection!A38,"")</f>
         <v/>
@@ -2250,11 +2346,11 @@
         <v/>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H38" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J38" s="1" t="str">
@@ -2262,7 +2358,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D39" s="1" t="str">
         <f>IF(ISNUMBER(B39),B39*CrossSection!A39,"")</f>
         <v/>
@@ -2276,11 +2372,11 @@
         <v/>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H39" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J39" s="1" t="str">
@@ -2288,7 +2384,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D40" s="1" t="str">
         <f>IF(ISNUMBER(B40),B40*CrossSection!A40,"")</f>
         <v/>
@@ -2302,11 +2398,11 @@
         <v/>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H40" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J40" s="1" t="str">
@@ -2314,7 +2410,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D41" s="1" t="str">
         <f>IF(ISNUMBER(B41),B41*CrossSection!A41,"")</f>
         <v/>
@@ -2328,11 +2424,11 @@
         <v/>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H41" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J41" s="1" t="str">
@@ -2340,7 +2436,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D42" s="1" t="str">
         <f>IF(ISNUMBER(B42),B42*CrossSection!A42,"")</f>
         <v/>
@@ -2354,11 +2450,11 @@
         <v/>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H42" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J42" s="1" t="str">
@@ -2366,7 +2462,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D43" s="1" t="str">
         <f>IF(ISNUMBER(B43),B43*CrossSection!A43,"")</f>
         <v/>
@@ -2380,11 +2476,11 @@
         <v/>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H43" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J43" s="1" t="str">
@@ -2392,7 +2488,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D44" s="1" t="str">
         <f>IF(ISNUMBER(B44),B44*CrossSection!A44,"")</f>
         <v/>
@@ -2402,15 +2498,15 @@
         <v/>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H44" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="4:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D45" s="1" t="str">
         <f>IF(ISNUMBER(B45),B45*CrossSection!A45,"")</f>
         <v/>
@@ -2420,15 +2516,15 @@
         <v/>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H45" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="4:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D46" s="1" t="str">
         <f>IF(ISNUMBER(B46),B46*CrossSection!A46,"")</f>
         <v/>
@@ -2438,11 +2534,11 @@
         <v/>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="4:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D47" s="1" t="str">
         <f>IF(ISNUMBER(B47),B47*CrossSection!A47,"")</f>
         <v/>
@@ -2452,11 +2548,11 @@
         <v/>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="4:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D48" s="1" t="str">
         <f>IF(ISNUMBER(B48),B48*CrossSection!A48,"")</f>
         <v/>
@@ -2466,11 +2562,11 @@
         <v/>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D49" s="1" t="str">
         <f>IF(ISNUMBER(B49),B49*CrossSection!A49,"")</f>
         <v/>
@@ -2480,11 +2576,11 @@
         <v/>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D50" s="1" t="str">
         <f>IF(ISNUMBER(B50),B50*CrossSection!A50,"")</f>
         <v/>
@@ -2494,11 +2590,11 @@
         <v/>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D51" s="1" t="str">
         <f>IF(ISNUMBER(B51),B51*CrossSection!A51,"")</f>
         <v/>
@@ -2508,11 +2604,11 @@
         <v/>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D52" s="1" t="str">
         <f>IF(ISNUMBER(B52),B52*CrossSection!A52,"")</f>
         <v/>
@@ -2522,11 +2618,11 @@
         <v/>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D53" s="1" t="str">
         <f>IF(ISNUMBER(B53),B53*CrossSection!A53,"")</f>
         <v/>
@@ -2536,11 +2632,11 @@
         <v/>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D54" s="1" t="str">
         <f>IF(ISNUMBER(B54),B54*CrossSection!A54,"")</f>
         <v/>
@@ -2550,11 +2646,11 @@
         <v/>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D55" s="1" t="str">
         <f>IF(ISNUMBER(B55),B55*CrossSection!A55,"")</f>
         <v/>
@@ -2564,765 +2660,765 @@
         <v/>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D56" s="1" t="str">
         <f>IF(ISNUMBER(B56),B56*CrossSection!A56,"")</f>
         <v/>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D57" s="1" t="str">
         <f>IF(ISNUMBER(B57),B57*CrossSection!A57,"")</f>
         <v/>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D58" s="1" t="str">
         <f>IF(ISNUMBER(B58),B58*CrossSection!A58,"")</f>
         <v/>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D59" s="1" t="str">
         <f>IF(ISNUMBER(B59),B59*CrossSection!A59,"")</f>
         <v/>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D60" s="1" t="str">
         <f>IF(ISNUMBER(B60),B60*CrossSection!A60,"")</f>
         <v/>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D61" s="1" t="str">
         <f>IF(ISNUMBER(B61),B61*CrossSection!A61,"")</f>
         <v/>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D62" s="1" t="str">
         <f>IF(ISNUMBER(B62),B62*CrossSection!A62,"")</f>
         <v/>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D63" s="1" t="str">
         <f>IF(ISNUMBER(B63),B63*CrossSection!A63,"")</f>
         <v/>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D64" s="1" t="str">
         <f>IF(ISNUMBER(B64),B64*CrossSection!A64,"")</f>
         <v/>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D65" s="1" t="str">
         <f>IF(ISNUMBER(B65),B65*CrossSection!A65,"")</f>
         <v/>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D66" s="1" t="str">
         <f>IF(ISNUMBER(B66),B66*CrossSection!A66,"")</f>
         <v/>
       </c>
       <c r="G66" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D67" s="1" t="str">
         <f>IF(ISNUMBER(B67),B67*CrossSection!A67,"")</f>
         <v/>
       </c>
       <c r="G67" t="str">
-        <f t="shared" ref="G67:G77" si="8">IF(ISNUMBER(B67),IF(ABS(D67)&gt;ABS(E67),"X","J"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" ref="G67:G77" si="7">IF(ISNUMBER(B67),IF(ABS(D67)&gt;ABS(E67),"X","J"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D68" s="1" t="str">
         <f>IF(ISNUMBER(B68),B68*CrossSection!A68,"")</f>
         <v/>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D69" s="1" t="str">
         <f>IF(ISNUMBER(B69),B69*CrossSection!A69,"")</f>
         <v/>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D70" s="1" t="str">
         <f>IF(ISNUMBER(B70),B70*CrossSection!A70,"")</f>
         <v/>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D71" s="1" t="str">
         <f>IF(ISNUMBER(B71),B71*CrossSection!A71,"")</f>
         <v/>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D72" s="1" t="str">
         <f>IF(ISNUMBER(B72),B72*CrossSection!A72,"")</f>
         <v/>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D73" s="1" t="str">
         <f>IF(ISNUMBER(B73),B73*CrossSection!A73,"")</f>
         <v/>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D74" s="1" t="str">
         <f>IF(ISNUMBER(B74),B74*CrossSection!A74,"")</f>
         <v/>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D75" s="1" t="str">
         <f>IF(ISNUMBER(B75),B75*CrossSection!A75,"")</f>
         <v/>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D76" s="1" t="str">
         <f>IF(ISNUMBER(B76),B76*CrossSection!A76,"")</f>
         <v/>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D77" s="1" t="str">
         <f>IF(ISNUMBER(B77),B77*CrossSection!A77,"")</f>
         <v/>
       </c>
       <c r="G77" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="4:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D78" s="1" t="str">
         <f>IF(ISNUMBER(B78),B78*CrossSection!A78,"")</f>
         <v/>
       </c>
     </row>
-    <row r="79" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D79" s="1" t="str">
         <f>IF(ISNUMBER(B79),B79*CrossSection!A79,"")</f>
         <v/>
       </c>
     </row>
-    <row r="80" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D80" s="1" t="str">
         <f>IF(ISNUMBER(B80),B80*CrossSection!A80,"")</f>
         <v/>
       </c>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" s="1" t="str">
         <f>IF(ISNUMBER(B81),B81*CrossSection!A81,"")</f>
         <v/>
       </c>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" s="1" t="str">
         <f>IF(ISNUMBER(B82),B82*CrossSection!A82,"")</f>
         <v/>
       </c>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" s="1" t="str">
         <f>IF(ISNUMBER(B83),B83*CrossSection!A83,"")</f>
         <v/>
       </c>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" s="1" t="str">
         <f>IF(ISNUMBER(B84),B84*CrossSection!A84,"")</f>
         <v/>
       </c>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" s="1" t="str">
         <f>IF(ISNUMBER(B85),B85*CrossSection!A85,"")</f>
         <v/>
       </c>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" s="1" t="str">
         <f>IF(ISNUMBER(B86),B86*CrossSection!A86,"")</f>
         <v/>
       </c>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D87" s="1" t="str">
         <f>IF(ISNUMBER(B87),B87*CrossSection!A87,"")</f>
         <v/>
       </c>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D88" s="1" t="str">
         <f>IF(ISNUMBER(B88),B88*CrossSection!A88,"")</f>
         <v/>
       </c>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D89" s="1" t="str">
         <f>IF(ISNUMBER(B89),B89*CrossSection!A89,"")</f>
         <v/>
       </c>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D90" s="1" t="str">
         <f>IF(ISNUMBER(B90),B90*CrossSection!A90,"")</f>
         <v/>
       </c>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D91" s="1" t="str">
         <f>IF(ISNUMBER(B91),B91*CrossSection!A91,"")</f>
         <v/>
       </c>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D92" s="1" t="str">
         <f>IF(ISNUMBER(B92),B92*CrossSection!A92,"")</f>
         <v/>
       </c>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D93" s="1" t="str">
         <f>IF(ISNUMBER(B93),B93*CrossSection!A93,"")</f>
         <v/>
       </c>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D94" s="1" t="str">
         <f>IF(ISNUMBER(B94),B94*CrossSection!A94,"")</f>
         <v/>
       </c>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D95" s="1" t="str">
         <f>IF(ISNUMBER(B95),B95*CrossSection!A95,"")</f>
         <v/>
       </c>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D96" s="1" t="str">
         <f>IF(ISNUMBER(B96),B96*CrossSection!A96,"")</f>
         <v/>
       </c>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D97" s="1" t="str">
         <f>IF(ISNUMBER(B97),B97*CrossSection!A97,"")</f>
         <v/>
       </c>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D98" s="1" t="str">
         <f>IF(ISNUMBER(B98),B98*CrossSection!A98,"")</f>
         <v/>
       </c>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D99" s="1" t="str">
         <f>IF(ISNUMBER(B99),B99*CrossSection!A99,"")</f>
         <v/>
       </c>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D100" s="1" t="str">
         <f>IF(ISNUMBER(B100),B100*CrossSection!A100,"")</f>
         <v/>
       </c>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D101" s="1" t="str">
         <f>IF(ISNUMBER(B101),B101*CrossSection!A101,"")</f>
         <v/>
       </c>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D102" s="1" t="str">
         <f>IF(ISNUMBER(B102),B102*CrossSection!A102,"")</f>
         <v/>
       </c>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D103" s="1" t="str">
         <f>IF(ISNUMBER(B103),B103*CrossSection!A103,"")</f>
         <v/>
       </c>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D104" s="1" t="str">
         <f>IF(ISNUMBER(B104),B104*CrossSection!A104,"")</f>
         <v/>
       </c>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D105" s="1" t="str">
         <f>IF(ISNUMBER(B105),B105*CrossSection!A105,"")</f>
         <v/>
       </c>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D106" s="1" t="str">
         <f>IF(ISNUMBER(B106),B106*CrossSection!A106,"")</f>
         <v/>
       </c>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D107" s="1" t="str">
         <f>IF(ISNUMBER(B107),B107*CrossSection!A107,"")</f>
         <v/>
       </c>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D108" s="1" t="str">
         <f>IF(ISNUMBER(B108),B108*CrossSection!A108,"")</f>
         <v/>
       </c>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D109" s="1" t="str">
         <f>IF(ISNUMBER(B109),B109*CrossSection!A109,"")</f>
         <v/>
       </c>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D110" s="1" t="str">
         <f>IF(ISNUMBER(B110),B110*CrossSection!A110,"")</f>
         <v/>
       </c>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D111" s="1" t="str">
         <f>IF(ISNUMBER(B111),B111*CrossSection!A111,"")</f>
         <v/>
       </c>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D112" s="1" t="str">
         <f>IF(ISNUMBER(B112),B112*CrossSection!A112,"")</f>
         <v/>
       </c>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D113" s="1" t="str">
         <f>IF(ISNUMBER(B113),B113*CrossSection!A113,"")</f>
         <v/>
       </c>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D114" s="1" t="str">
         <f>IF(ISNUMBER(B114),B114*CrossSection!A114,"")</f>
         <v/>
       </c>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D115" s="1" t="str">
         <f>IF(ISNUMBER(B115),B115*CrossSection!A115,"")</f>
         <v/>
       </c>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D116" s="1" t="str">
         <f>IF(ISNUMBER(B116),B116*CrossSection!A116,"")</f>
         <v/>
       </c>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D117" s="1" t="str">
         <f>IF(ISNUMBER(B117),B117*CrossSection!A117,"")</f>
         <v/>
       </c>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D118" s="1" t="str">
         <f>IF(ISNUMBER(B118),B118*CrossSection!A118,"")</f>
         <v/>
       </c>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D119" s="1" t="str">
         <f>IF(ISNUMBER(B119),B119*CrossSection!A119,"")</f>
         <v/>
       </c>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D120" s="1" t="str">
         <f>IF(ISNUMBER(B120),B120*CrossSection!A120,"")</f>
         <v/>
       </c>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D121" s="1" t="str">
         <f>IF(ISNUMBER(B121),B121*CrossSection!A121,"")</f>
         <v/>
       </c>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D122" s="1" t="str">
         <f>IF(ISNUMBER(B122),B122*CrossSection!A122,"")</f>
         <v/>
       </c>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D123" s="1" t="str">
         <f>IF(ISNUMBER(B123),B123*CrossSection!A123,"")</f>
         <v/>
       </c>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="1" t="str">
         <f>IF(ISNUMBER(B124),B124*CrossSection!A124,"")</f>
         <v/>
       </c>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D125" s="1" t="str">
         <f>IF(ISNUMBER(B125),B125*CrossSection!A125,"")</f>
         <v/>
       </c>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D126" s="1" t="str">
         <f>IF(ISNUMBER(B126),B126*CrossSection!A126,"")</f>
         <v/>
       </c>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D127" s="1" t="str">
         <f>IF(ISNUMBER(B127),B127*CrossSection!A127,"")</f>
         <v/>
       </c>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D128" s="1" t="str">
         <f>IF(ISNUMBER(B128),B128*CrossSection!A128,"")</f>
         <v/>
       </c>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129" s="1" t="str">
         <f>IF(ISNUMBER(B129),B129*CrossSection!A129,"")</f>
         <v/>
       </c>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130" s="1" t="str">
         <f>IF(ISNUMBER(B130),B130*CrossSection!A130,"")</f>
         <v/>
       </c>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131" s="1" t="str">
         <f>IF(ISNUMBER(B131),B131*CrossSection!A131,"")</f>
         <v/>
       </c>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132" s="1" t="str">
         <f>IF(ISNUMBER(B132),B132*CrossSection!A132,"")</f>
         <v/>
       </c>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133" s="1" t="str">
         <f>IF(ISNUMBER(B133),B133*CrossSection!A133,"")</f>
         <v/>
       </c>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134" s="1" t="str">
         <f>IF(ISNUMBER(B134),B134*CrossSection!A134,"")</f>
         <v/>
       </c>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135" s="1" t="str">
         <f>IF(ISNUMBER(B135),B135*CrossSection!A135,"")</f>
         <v/>
       </c>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" s="1" t="str">
         <f>IF(ISNUMBER(B136),B136*CrossSection!A136,"")</f>
         <v/>
       </c>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" s="1" t="str">
         <f>IF(ISNUMBER(B137),B137*CrossSection!A137,"")</f>
         <v/>
       </c>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138" s="1" t="str">
         <f>IF(ISNUMBER(B138),B138*CrossSection!A138,"")</f>
         <v/>
       </c>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139" s="1" t="str">
         <f>IF(ISNUMBER(B139),B139*CrossSection!A139,"")</f>
         <v/>
       </c>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D140" s="1" t="str">
         <f>IF(ISNUMBER(B140),B140*CrossSection!A140,"")</f>
         <v/>
       </c>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D141" s="1" t="str">
         <f>IF(ISNUMBER(B141),B141*CrossSection!A141,"")</f>
         <v/>
       </c>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D142" s="1" t="str">
         <f>IF(ISNUMBER(B142),B142*CrossSection!A142,"")</f>
         <v/>
       </c>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D143" s="1" t="str">
         <f>IF(ISNUMBER(B143),B143*CrossSection!A143,"")</f>
         <v/>
       </c>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D144" s="1" t="str">
         <f>IF(ISNUMBER(B144),B144*CrossSection!A144,"")</f>
         <v/>
       </c>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" s="1" t="str">
         <f>IF(ISNUMBER(B145),B145*CrossSection!A145,"")</f>
         <v/>
       </c>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146" s="1" t="str">
         <f>IF(ISNUMBER(B146),B146*CrossSection!A146,"")</f>
         <v/>
       </c>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147" s="1" t="str">
         <f>IF(ISNUMBER(B147),B147*CrossSection!A147,"")</f>
         <v/>
       </c>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148" s="1" t="str">
         <f>IF(ISNUMBER(B148),B148*CrossSection!A148,"")</f>
         <v/>
       </c>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149" s="1" t="str">
         <f>IF(ISNUMBER(B149),B149*CrossSection!A149,"")</f>
         <v/>
       </c>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150" s="1" t="str">
         <f>IF(ISNUMBER(B150),B150*CrossSection!A150,"")</f>
         <v/>
       </c>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151" s="1" t="str">
         <f>IF(ISNUMBER(B151),B151*CrossSection!A151,"")</f>
         <v/>
       </c>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152" s="1" t="str">
         <f>IF(ISNUMBER(B152),B152*CrossSection!A152,"")</f>
         <v/>
       </c>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D153" s="1" t="str">
         <f>IF(ISNUMBER(B153),B153*CrossSection!A153,"")</f>
         <v/>
       </c>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D154" s="1" t="str">
         <f>IF(ISNUMBER(B154),B154*CrossSection!A154,"")</f>
         <v/>
       </c>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D155" s="1" t="str">
         <f>IF(ISNUMBER(B155),B155*CrossSection!A155,"")</f>
         <v/>
       </c>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D156" s="1" t="str">
         <f>IF(ISNUMBER(B156),B156*CrossSection!A156,"")</f>
         <v/>
       </c>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D157" s="1" t="str">
         <f>IF(ISNUMBER(B157),B157*CrossSection!A157,"")</f>
         <v/>
       </c>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D158" s="1" t="str">
         <f>IF(ISNUMBER(B158),B158*CrossSection!A158,"")</f>
         <v/>
       </c>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D159" s="1" t="str">
         <f>IF(ISNUMBER(B159),B159*CrossSection!A159,"")</f>
         <v/>
       </c>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D160" s="1" t="str">
         <f>IF(ISNUMBER(B160),B160*CrossSection!A160,"")</f>
         <v/>
       </c>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D161" s="1" t="str">
         <f>IF(ISNUMBER(B161),B161*CrossSection!A161,"")</f>
         <v/>
       </c>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D162" s="1" t="str">
         <f>IF(ISNUMBER(B162),B162*CrossSection!A162,"")</f>
         <v/>
       </c>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D163" s="1" t="str">
         <f>IF(ISNUMBER(B163),B163*CrossSection!A163,"")</f>
         <v/>
       </c>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D164" s="1" t="str">
         <f>IF(ISNUMBER(B164),B164*CrossSection!A164,"")</f>
         <v/>
       </c>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D165" s="1" t="str">
         <f>IF(ISNUMBER(B165),B165*CrossSection!A165,"")</f>
         <v/>
       </c>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D166" s="1" t="str">
         <f>IF(ISNUMBER(B166),B166*CrossSection!A166,"")</f>
         <v/>
       </c>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D167" s="1" t="str">
         <f>IF(ISNUMBER(B167),B167*CrossSection!A167,"")</f>
         <v/>
